--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
